--- a/Statistics/regression.xlsx
+++ b/Statistics/regression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amy\Desktop\Excel_fun\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A84979-4D44-4F60-B814-F5FF3AF74C3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF9370B-DCD9-41F0-B2D8-09CFB42B634D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1BDA7E86-E919-4D06-8BDF-FD23B9A2EA57}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="42">
   <si>
     <t>X</t>
   </si>
@@ -155,6 +155,15 @@
   <si>
     <t>X range, integers</t>
   </si>
+  <si>
+    <t>Char title</t>
+  </si>
+  <si>
+    <t>N (up to 200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y </t>
+  </si>
 </sst>
 </file>
 
@@ -202,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +233,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +339,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -342,12 +357,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -357,6 +366,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -391,6 +409,25 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>Simple_Regression_Analysis!$E$8</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>X based on Y </c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25975678040244971"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -603,6 +640,47 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Simple_Regression_Analysis!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -665,6 +743,47 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Simple_Regression_Analysis!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -851,64 +970,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>-14</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>-19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -920,64 +1039,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-198.86815621691855</c:v>
+                  <c:v>3.5856981426988117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-292.86567114388509</c:v>
+                  <c:v>8.2626220655685927</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132.32033916566294</c:v>
+                  <c:v>-59.514153314113393</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-144.43885102078426</c:v>
+                  <c:v>48.229958005847173</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-190.93165415515648</c:v>
+                  <c:v>-50.212284932540754</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5154260756199349</c:v>
+                  <c:v>-63.207823330046821</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.233084998908694</c:v>
+                  <c:v>-104.66849374756997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.33144841235579</c:v>
+                  <c:v>-49.092985324034615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.510565581219247</c:v>
+                  <c:v>-55.648713388626192</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-213.06991666129957</c:v>
+                  <c:v>-97.121801562141044</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-192.49945935295693</c:v>
+                  <c:v>50.268533058467014</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-110.29945800769428</c:v>
+                  <c:v>-82.483829515877261</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>98.28762921735084</c:v>
+                  <c:v>29.933625871782461</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.160704629401934</c:v>
+                  <c:v>-12.460131533846205</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-281.18832519233837</c:v>
+                  <c:v>37.357426750311639</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46.94794542235438</c:v>
+                  <c:v>-53.100040496416703</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>130.93024467871766</c:v>
+                  <c:v>50.180574893049453</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>101.00510192366517</c:v>
+                  <c:v>-29.002121863890007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-101.86740162515774</c:v>
+                  <c:v>6.2294471077872764</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-142.53772561266197</c:v>
+                  <c:v>11.748767143942199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1263,73 +1382,48 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>Regression_generation_REAL!$B$2:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+              <c:strCache>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>17.42635964234109</c:v>
+                  <c:v>17.18707196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.065975831244707</c:v>
+                  <c:v>15.99707544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.142764224795876</c:v>
+                  <c:v>17.83851238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.919535956826813</c:v>
+                  <c:v>17.37282706</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.778412309462407</c:v>
+                  <c:v>15.31375197</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.427555347499265</c:v>
+                  <c:v>15.74289458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.948650886944742</c:v>
+                  <c:v>19.73422715</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.35720393773564</c:v>
+                  <c:v>16.28254035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.69344651343955</c:v>
+                  <c:v>19.21331574</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.433167255026804</c:v>
+                  <c:v>18.94019059</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.934145732601063</c:v>
+                  <c:v>16.86944263</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.766906743610804</c:v>
+                  <c:v>15.97216567</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.607726679432215</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15.119712071310945</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.022269145772057</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.526184294414222</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.389293462409558</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.007302409005565</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16.113485382139157</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.768623755267189</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1338,64 +1432,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>263.2902608483239</c:v>
+                  <c:v>10.151408682817312</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>260.82248748263515</c:v>
+                  <c:v>6.1557070884384686</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>230.1854548228153</c:v>
+                  <c:v>1.6447818099314464</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>243.35829130725199</c:v>
+                  <c:v>2.9440989113547755</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>285.61924398347475</c:v>
+                  <c:v>3.0989387449831995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>248.28252749499998</c:v>
+                  <c:v>10.828676539185452</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>252.29035653644775</c:v>
+                  <c:v>7.038583730078745</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>247.40313502866175</c:v>
+                  <c:v>-3.2837128786578074</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>265.00363310517224</c:v>
+                  <c:v>7.1631680932209196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>237.89900763232328</c:v>
+                  <c:v>3.1698633962251779</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>291.74118477065099</c:v>
+                  <c:v>7.0207066299395091</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>285.44324215579604</c:v>
+                  <c:v>3.2533011963944469</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>274.3337891453433</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>231.1804234345735</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>244.38275761097009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>292.34500813279004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>297.33903988835374</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>254.4786101670218</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>248.18860784009146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>297.78907497380237</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3409,8 +3503,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -3427,8 +3521,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8791575" y="409575"/>
-          <a:ext cx="2171700" cy="1876425"/>
+          <a:off x="9439275" y="409575"/>
+          <a:ext cx="3505200" cy="1895475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3462,11 +3556,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>Enter</a:t>
+            <a:t>Generate</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t> your data in the yellow columns.</a:t>
+            <a:t> data by putting your desired slope and intercept in the yellow boxes, as well as N.  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3475,7 +3569,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>Optional: Variable name for your independant (X) Variable, to make it look nicer.</a:t>
+            <a:t>Add noise by changing the standard deviation of the residuals.  A bigger sigma has a smaller r.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3484,8 +3578,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>Put in a number from 0 to 100% in Confidence, for CI for the slope</a:t>
+            <a:t>In this sheet, X are integers, and Y are Real.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
@@ -3600,31 +3697,66 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>Enter</a:t>
+            <a:rPr lang="en-CA" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Generate</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t> your data in the yellow columns.</a:t>
+            <a:rPr lang="en-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> data by putting your desired slope and intercept in the yellow boxes, as well as N.  </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-CA">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>Optional: Variable name for your independant (X) Variable, to make it look nicer.</a:t>
+            <a:rPr lang="en-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Add noise by changing the standard deviation of the residuals.  A bigger sigma has a smaller r.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-CA">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>Put in a number from 0 to 100% in Confidence, for CI for the slope</a:t>
+            <a:rPr lang="en-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In this sheet, both X and Y are Real.</a:t>
           </a:r>
+          <a:endParaRPr lang="en-CA">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
@@ -3977,7 +4109,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4011,10 +4143,10 @@
       <c r="B2" s="8">
         <v>23</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
@@ -4023,10 +4155,10 @@
       <c r="B3" s="8">
         <v>29</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>0.9</v>
       </c>
       <c r="F3" s="5"/>
@@ -4038,10 +4170,10 @@
       <c r="B4" s="8">
         <v>49</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <f>1-E3</f>
         <v>9.9999999999999978E-2</v>
       </c>
@@ -4056,11 +4188,11 @@
       <c r="B5" s="8">
         <v>64</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>26</v>
+      <c r="E5" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -4070,11 +4202,11 @@
       <c r="B6" s="8">
         <v>74</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>30</v>
+      <c r="E6" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>3</v>
@@ -4114,6 +4246,13 @@
       </c>
       <c r="B8" s="8">
         <v>96</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="str">
+        <f>E6&amp; " based on "&amp;E5</f>
+        <v xml:space="preserve">X based on Y </v>
       </c>
       <c r="G8" s="1" t="s">
         <v>5</v>
@@ -4373,7 +4512,7 @@
         <f>INTERCEPT(B:B,A:A)</f>
         <v>4.1616541353383525</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="16">
         <f>I21*SQRT(SUMSQ(A:A)/H11)</f>
         <v>3.3551003987866306</v>
       </c>
@@ -4382,7 +4521,7 @@
         <v>1.240396304338139</v>
       </c>
       <c r="K20" s="1">
-        <f>_xlfn.T.DIST.2T(J20,H11-2)</f>
+        <f>_xlfn.T.DIST.2T(ABS(J20),H11-2)</f>
         <v>0.23853436831725561</v>
       </c>
       <c r="L20" s="1">
@@ -4405,7 +4544,7 @@
     <row r="21" spans="7:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G21" s="2" t="str">
         <f>E5</f>
-        <v>Hours</v>
+        <v xml:space="preserve">Y </v>
       </c>
       <c r="H21" s="2">
         <f>SLOPE(B:B,A:A)</f>
@@ -4451,16 +4590,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C508046F-F8CB-442A-AB3B-8780A8062C93}">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.265625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="8"/>
+    <col min="2" max="2" width="10.265625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="23"/>
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.53125" customWidth="1"/>
@@ -4488,35 +4627,35 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="23">
         <f ca="1">IF(A2&gt;$F$12,"",RANDBETWEEN($F$15,$F$16))</f>
-        <v>-14</v>
-      </c>
-      <c r="C2" s="8">
+        <v>-5</v>
+      </c>
+      <c r="C2" s="23">
         <f ca="1">IF(B2="","",$F$10+$F$9*B2+_xlfn.NORM.INV(RAND(),0,$F$11))</f>
-        <v>-198.86815621691855</v>
-      </c>
-      <c r="E2" s="11" t="s">
+        <v>3.5856981426988117</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="23">
         <f t="shared" ref="B3:B66" ca="1" si="0">IF(A3&gt;$F$12,"",RANDBETWEEN($F$15,$F$16))</f>
-        <v>-19</v>
-      </c>
-      <c r="C3" s="8">
+        <v>7</v>
+      </c>
+      <c r="C3" s="23">
         <f t="shared" ref="C3:C66" ca="1" si="1">IF(B3="","",$F$10+$F$9*B3+_xlfn.NORM.INV(RAND(),0,$F$11))</f>
-        <v>-292.86567114388509</v>
-      </c>
-      <c r="E3" s="13" t="s">
+        <v>8.2626220655685927</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>0.9</v>
       </c>
       <c r="G3" s="5"/>
@@ -4525,18 +4664,18 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C4" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>132.32033916566294</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="C4" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-59.514153314113393</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <f>1-F3</f>
         <v>9.9999999999999978E-2</v>
       </c>
@@ -4548,18 +4687,18 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="C5" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-144.43885102078426</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="B5" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C5" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>48.229958005847173</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4567,18 +4706,18 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-13</v>
-      </c>
-      <c r="C6" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-190.93165415515648</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="C6" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-50.212284932540754</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -4596,20 +4735,20 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.5154260756199349</v>
+      <c r="B7" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-11</v>
+      </c>
+      <c r="C7" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-63.207823330046821</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="1">
         <f ca="1">PEARSON(C:C,B:B)</f>
-        <v>0.99938384429132898</v>
+        <v>0.68042622781838402</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -4622,24 +4761,24 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>70.233084998908694</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="B8" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="C8" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-104.66849374756997</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="21"/>
       <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I8" s="1">
         <f ca="1">I7^2</f>
-        <v>0.99876806823051534</v>
+        <v>0.46297985150315546</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -4652,26 +4791,26 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B9" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-49.092985324034615</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="17">
         <v>3</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>48.33144841235579</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="19">
-        <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="1">
         <f ca="1">1-(((1-I8)*(I11-1))/(I11-2))</f>
-        <v>0.9987240706673195</v>
+        <v>0.44380056048541106</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -4684,18 +4823,18 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>53.510565581219247</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="B10" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="C10" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-55.648713388626192</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="17">
         <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -4703,7 +4842,7 @@
       </c>
       <c r="I10" s="1">
         <f ca="1">STEYX(C:C,B:B)</f>
-        <v>5.4439253828761656</v>
+        <v>32.666500414698667</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -4716,19 +4855,19 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-15</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-213.06991666129957</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="B11" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-19</v>
+      </c>
+      <c r="C11" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-97.121801562141044</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="19">
-        <v>4</v>
+      <c r="F11" s="17">
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>8</v>
@@ -4748,18 +4887,18 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-13</v>
-      </c>
-      <c r="C12" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-192.49945935295693</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="17">
+      <c r="B12" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C12" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>50.268533058467014</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="15">
         <v>30</v>
       </c>
       <c r="H12" s="10"/>
@@ -4775,13 +4914,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
-      </c>
-      <c r="C13" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-110.29945800769428</v>
+      <c r="B13" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="C13" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-82.483829515877261</v>
       </c>
       <c r="E13" s="10"/>
       <c r="H13" s="10" t="s">
@@ -4799,18 +4938,18 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C14" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>98.28762921735084</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="B14" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>29.933625871782461</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="21"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
         <v>13</v>
@@ -4834,18 +4973,18 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C15" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>18.160704629401934</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="B15" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="C15" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-12.460131533846205</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="19">
         <v>-19</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -4856,19 +4995,19 @@
       </c>
       <c r="J15" s="1">
         <f ca="1">J17-J16</f>
-        <v>672760.29615533852</v>
+        <v>25759.3419132622</v>
       </c>
       <c r="K15" s="1">
         <f ca="1">J15/I15</f>
-        <v>672760.29615533852</v>
+        <v>25759.3419132622</v>
       </c>
       <c r="L15" s="1">
         <f ca="1">K15/K16</f>
-        <v>22700.531476792581</v>
+        <v>24.139570700231424</v>
       </c>
       <c r="M15" s="1">
         <f ca="1">_xlfn.F.DIST.RT(L15,I15,I16)</f>
-        <v>2.7729831601599003E-42</v>
+        <v>3.5162244755100837E-5</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -4877,18 +5016,18 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-19</v>
-      </c>
-      <c r="C16" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-281.18832519233837</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="B16" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>37.357426750311639</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="15">
         <v>10</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -4900,11 +5039,11 @@
       </c>
       <c r="J16" s="1">
         <f ca="1">I10^2*(I11-2)</f>
-        <v>829.81706008105539</v>
+        <v>29878.806981618232</v>
       </c>
       <c r="K16" s="1">
         <f ca="1">J16/I16</f>
-        <v>29.636323574323406</v>
+        <v>1067.1002493435083</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -4915,15 +5054,15 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C17" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>46.94794542235438</v>
-      </c>
-      <c r="E17" s="20"/>
+      <c r="B17" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="C17" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-53.100040496416703</v>
+      </c>
+      <c r="E17" s="18"/>
       <c r="H17" s="2" t="s">
         <v>11</v>
       </c>
@@ -4933,7 +5072,7 @@
       </c>
       <c r="J17" s="2">
         <f ca="1">(_xlfn.STDEV.P(C:C)^2)*(I11)</f>
-        <v>673590.11321541958</v>
+        <v>55638.148894880433</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -4945,13 +5084,13 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C18" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>130.93024467871766</v>
+      <c r="B18" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C18" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>50.180574893049453</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -4966,13 +5105,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C19" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>101.00510192366517</v>
+      <c r="B19" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="C19" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-29.002121863890007</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
@@ -5006,61 +5145,61 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="C20" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-101.86740162515774</v>
+      <c r="B20" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="C20" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.2294471077872764</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I20" s="1">
         <f ca="1">INTERCEPT(C:C,B:B)</f>
-        <v>4.4771342570304284</v>
-      </c>
-      <c r="J20" s="18">
+        <v>-4.2241968924223094</v>
+      </c>
+      <c r="J20" s="16">
         <f ca="1">J21*SQRT(SUMSQ(B:B)/I11)</f>
-        <v>1.0952206749388596</v>
+        <v>6.7206506365373677</v>
       </c>
       <c r="K20" s="1">
         <f ca="1">I20/J20</f>
-        <v>4.087883254468661</v>
+        <v>-0.62853987223455965</v>
       </c>
       <c r="L20" s="1">
-        <f ca="1">_xlfn.T.DIST.2T(K20,I11-2)</f>
-        <v>3.3184515749047519E-4</v>
+        <f ca="1">_xlfn.T.DIST.2T(ABS(K20),I11-2)</f>
+        <v>0.53474443947550387</v>
       </c>
       <c r="M20" s="1">
         <f ca="1">I20-_xlfn.T.INV.2T(0.05,I11-2)*J20</f>
-        <v>2.2336764046438606</v>
+        <v>-17.990825653816209</v>
       </c>
       <c r="N20" s="1">
         <f ca="1">I20+_xlfn.T.INV.2T(0.05,I11-2)*J20</f>
-        <v>6.7205921094169963</v>
+        <v>9.5424318689715903</v>
       </c>
       <c r="O20" s="1">
         <f ca="1">I20-_xlfn.T.INV.2T(1-F3,I11-2)*J20</f>
-        <v>2.6140204870443209</v>
+        <v>-15.656903588630056</v>
       </c>
       <c r="P20" s="1">
         <f ca="1">I20+_xlfn.T.INV.2T(1-F3,I11-2)*J20</f>
-        <v>6.3402480270165356</v>
+        <v>7.2085098037854376</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="C21" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-142.53772561266197</v>
+      <c r="B21" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C21" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.748767143942199</v>
       </c>
       <c r="H21" s="2" t="str">
         <f>F5</f>
@@ -5068,176 +5207,176 @@
       </c>
       <c r="I21" s="2">
         <f ca="1">SLOPE(C:C,B:B)</f>
-        <v>15.067794691907521</v>
+        <v>3.4332483862142444</v>
       </c>
       <c r="J21" s="2">
         <f ca="1">I10/(SQRT(I11)*_xlfn.STDEV.P(B:B))</f>
-        <v>0.10000729518193652</v>
+        <v>0.69877997912493117</v>
       </c>
       <c r="K21" s="2">
         <f ca="1">I21/J21</f>
-        <v>150.66695549055396</v>
+        <v>4.9132037104349155</v>
       </c>
       <c r="L21" s="2">
         <f ca="1">_xlfn.T.DIST.2T(ABS(K21), I11-2)</f>
-        <v>2.7729831601599398E-42</v>
+        <v>3.5162244755100837E-5</v>
       </c>
       <c r="M21" s="2">
         <f ca="1">I21-_xlfn.T.INV.2T(0.05,I11-2)*J21</f>
-        <v>14.862939034225217</v>
+        <v>2.0018624864312038</v>
       </c>
       <c r="N21" s="2">
         <f ca="1">I21+_xlfn.T.INV.2T(0.05,I11-2)*J21</f>
-        <v>15.272650349589824</v>
+        <v>4.8646342859972851</v>
       </c>
       <c r="O21" s="2">
         <f ca="1">I21-_xlfn.T.INV.2T(1-F3,I11-2)*J21</f>
-        <v>14.897669188421265</v>
+        <v>2.2445321474791213</v>
       </c>
       <c r="P21" s="2">
         <f ca="1">I21+_xlfn.T.INV.2T(1-F3,I11-2)*J21</f>
-        <v>15.237920195393777</v>
+        <v>4.6219646249493671</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-15</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-224.41097638748465</v>
+      <c r="B22" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="C22" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.81187802945368759</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C23" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>66.176037579236009</v>
+      <c r="B23" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-13</v>
+      </c>
+      <c r="C23" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-57.320408654167913</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-18</v>
-      </c>
-      <c r="C24" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-268.40263268997194</v>
+      <c r="B24" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-13.463162278866072</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-19</v>
-      </c>
-      <c r="C25" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-284.43879118208196</v>
+      <c r="B25" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="C25" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-43.391134850393961</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="C26" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-81.101532625223314</v>
+      <c r="B26" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="C26" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-10.651589707850396</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-19</v>
-      </c>
-      <c r="C27" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-280.68503439285661</v>
+      <c r="B27" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-16</v>
+      </c>
+      <c r="C27" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>20.382579622704142</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C28" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>127.15889484697503</v>
+      <c r="B28" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="C28" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-17.07754824797415</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C29" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>130.18090910494445</v>
+      <c r="B29" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="C29" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.0077547789077013</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="C30" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-82.053071513749003</v>
+      <c r="B30" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-19</v>
+      </c>
+      <c r="C30" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-63.122659620645841</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C31" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>111.85868637148398</v>
+      <c r="B31" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="C31" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.207584317132735</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C32" s="8" t="str">
+      <c r="B32" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C32" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5246,11 +5385,11 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C33" s="8" t="str">
+      <c r="B33" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C33" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5259,11 +5398,11 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C34" s="8" t="str">
+      <c r="B34" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C34" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5272,11 +5411,11 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C35" s="8" t="str">
+      <c r="B35" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C35" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5285,11 +5424,11 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C36" s="8" t="str">
+      <c r="B36" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C36" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5298,11 +5437,11 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C37" s="8" t="str">
+      <c r="B37" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C37" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5311,11 +5450,11 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C38" s="8" t="str">
+      <c r="B38" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C38" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5324,11 +5463,11 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C39" s="8" t="str">
+      <c r="B39" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C39" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5337,11 +5476,11 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C40" s="8" t="str">
+      <c r="B40" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C40" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5350,11 +5489,11 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C41" s="8" t="str">
+      <c r="B41" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C41" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5363,11 +5502,11 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C42" s="8" t="str">
+      <c r="B42" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C42" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5376,11 +5515,11 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C43" s="8" t="str">
+      <c r="B43" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C43" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5389,11 +5528,11 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C44" s="8" t="str">
+      <c r="B44" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C44" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5402,11 +5541,11 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C45" s="8" t="str">
+      <c r="B45" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C45" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5415,11 +5554,11 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C46" s="8" t="str">
+      <c r="B46" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C46" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5428,11 +5567,11 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C47" s="8" t="str">
+      <c r="B47" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C47" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5441,11 +5580,11 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C48" s="8" t="str">
+      <c r="B48" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C48" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5454,11 +5593,11 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C49" s="8" t="str">
+      <c r="B49" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C49" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5467,11 +5606,11 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C50" s="8" t="str">
+      <c r="B50" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C50" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5480,11 +5619,11 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C51" s="8" t="str">
+      <c r="B51" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C51" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5493,11 +5632,11 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C52" s="8" t="str">
+      <c r="B52" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C52" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5506,11 +5645,11 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C53" s="8" t="str">
+      <c r="B53" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C53" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5519,11 +5658,11 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C54" s="8" t="str">
+      <c r="B54" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C54" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5532,11 +5671,11 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C55" s="8" t="str">
+      <c r="B55" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C55" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5545,11 +5684,11 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C56" s="8" t="str">
+      <c r="B56" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C56" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5558,11 +5697,11 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C57" s="8" t="str">
+      <c r="B57" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C57" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5571,11 +5710,11 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C58" s="8" t="str">
+      <c r="B58" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C58" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5584,11 +5723,11 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C59" s="8" t="str">
+      <c r="B59" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C59" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5597,11 +5736,11 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C60" s="8" t="str">
+      <c r="B60" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C60" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5610,11 +5749,11 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C61" s="8" t="str">
+      <c r="B61" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C61" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5623,11 +5762,11 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C62" s="8" t="str">
+      <c r="B62" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C62" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5636,11 +5775,11 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C63" s="8" t="str">
+      <c r="B63" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C63" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5649,11 +5788,11 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C64" s="8" t="str">
+      <c r="B64" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C64" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5662,11 +5801,11 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C65" s="8" t="str">
+      <c r="B65" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C65" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5675,11 +5814,11 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C66" s="8" t="str">
+      <c r="B66" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C66" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -5688,11 +5827,11 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="8" t="str">
+      <c r="B67" s="23" t="str">
         <f t="shared" ref="B67:B101" ca="1" si="2">IF(A67&gt;$F$12,"",RANDBETWEEN($F$15,$F$16))</f>
         <v/>
       </c>
-      <c r="C67" s="8" t="str">
+      <c r="C67" s="23" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">IF(B67="","",$F$10+$F$9*B67+_xlfn.NORM.INV(RAND(),0,$F$11))</f>
         <v/>
       </c>
@@ -5701,11 +5840,11 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="8" t="str">
+      <c r="B68" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C68" s="8" t="str">
+      <c r="C68" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5714,11 +5853,11 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="str">
+      <c r="B69" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C69" s="8" t="str">
+      <c r="C69" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5727,11 +5866,11 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="8" t="str">
+      <c r="B70" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C70" s="8" t="str">
+      <c r="C70" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5740,11 +5879,11 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="8" t="str">
+      <c r="B71" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C71" s="8" t="str">
+      <c r="C71" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5753,11 +5892,11 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="8" t="str">
+      <c r="B72" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C72" s="8" t="str">
+      <c r="C72" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5766,11 +5905,11 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="8" t="str">
+      <c r="B73" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C73" s="8" t="str">
+      <c r="C73" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5779,11 +5918,11 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="8" t="str">
+      <c r="B74" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C74" s="8" t="str">
+      <c r="C74" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5792,11 +5931,11 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="str">
+      <c r="B75" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C75" s="8" t="str">
+      <c r="C75" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5805,11 +5944,11 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="8" t="str">
+      <c r="B76" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C76" s="8" t="str">
+      <c r="C76" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5818,11 +5957,11 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="str">
+      <c r="B77" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C77" s="8" t="str">
+      <c r="C77" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5831,11 +5970,11 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="8" t="str">
+      <c r="B78" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C78" s="8" t="str">
+      <c r="C78" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5844,11 +5983,11 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="8" t="str">
+      <c r="B79" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C79" s="8" t="str">
+      <c r="C79" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5857,11 +5996,11 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="8" t="str">
+      <c r="B80" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C80" s="8" t="str">
+      <c r="C80" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5870,11 +6009,11 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="8" t="str">
+      <c r="B81" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C81" s="8" t="str">
+      <c r="C81" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5883,11 +6022,11 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="8" t="str">
+      <c r="B82" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C82" s="8" t="str">
+      <c r="C82" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5896,11 +6035,11 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="8" t="str">
+      <c r="B83" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C83" s="8" t="str">
+      <c r="C83" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5909,11 +6048,11 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="8" t="str">
+      <c r="B84" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C84" s="8" t="str">
+      <c r="C84" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5922,11 +6061,11 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="8" t="str">
+      <c r="B85" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C85" s="8" t="str">
+      <c r="C85" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5935,11 +6074,11 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="8" t="str">
+      <c r="B86" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C86" s="8" t="str">
+      <c r="C86" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5948,11 +6087,11 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="8" t="str">
+      <c r="B87" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C87" s="8" t="str">
+      <c r="C87" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5961,11 +6100,11 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="8" t="str">
+      <c r="B88" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C88" s="8" t="str">
+      <c r="C88" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5974,11 +6113,11 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="8" t="str">
+      <c r="B89" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C89" s="8" t="str">
+      <c r="C89" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -5987,11 +6126,11 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="8" t="str">
+      <c r="B90" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C90" s="8" t="str">
+      <c r="C90" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -6000,11 +6139,11 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="8" t="str">
+      <c r="B91" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C91" s="8" t="str">
+      <c r="C91" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -6013,11 +6152,11 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="8" t="str">
+      <c r="B92" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C92" s="8" t="str">
+      <c r="C92" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -6026,11 +6165,11 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="8" t="str">
+      <c r="B93" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C93" s="8" t="str">
+      <c r="C93" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -6039,11 +6178,11 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="8" t="str">
+      <c r="B94" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C94" s="8" t="str">
+      <c r="C94" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -6052,11 +6191,11 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="8" t="str">
+      <c r="B95" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C95" s="8" t="str">
+      <c r="C95" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -6065,11 +6204,11 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="8" t="str">
+      <c r="B96" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C96" s="8" t="str">
+      <c r="C96" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -6078,11 +6217,11 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="8" t="str">
+      <c r="B97" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C97" s="8" t="str">
+      <c r="C97" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -6091,11 +6230,11 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="8" t="str">
+      <c r="B98" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C98" s="8" t="str">
+      <c r="C98" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -6104,11 +6243,11 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="8" t="str">
+      <c r="B99" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C99" s="8" t="str">
+      <c r="C99" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -6117,11 +6256,11 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="8" t="str">
+      <c r="B100" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C100" s="8" t="str">
+      <c r="C100" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -6130,12 +6269,1312 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="8" t="str">
+      <c r="B101" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C101" s="8" t="str">
+      <c r="C101" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="23" t="str">
+        <f t="shared" ref="B102:B165" ca="1" si="4">IF(A102&gt;$F$12,"",RANDBETWEEN($F$15,$F$16))</f>
+        <v/>
+      </c>
+      <c r="C102" s="23" t="str">
+        <f t="shared" ref="C102:C165" ca="1" si="5">IF(B102="","",$F$10+$F$9*B102+_xlfn.NORM.INV(RAND(),0,$F$11))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C103" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C104" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C105" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C106" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C107" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C108" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C109" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C110" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C111" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C112" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C113" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C114" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C115" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C116" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C117" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C118" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C119" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C120" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C121" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C122" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C123" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C124" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C125" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C126" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C127" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C128" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C129" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C130" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C131" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C132" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C133" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C134" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C135" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C136" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C137" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C138" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C139" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C140" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C141" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C142" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C143" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C144" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C145" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C146" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C147" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C148" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C149" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C150" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C151" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C152" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C153" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C154" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C155" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C156" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C157" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C158" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C159" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C160" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C161" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C162" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C163" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C164" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C165" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="23" t="str">
+        <f t="shared" ref="B166:B201" ca="1" si="6">IF(A166&gt;$F$12,"",RANDBETWEEN($F$15,$F$16))</f>
+        <v/>
+      </c>
+      <c r="C166" s="23" t="str">
+        <f t="shared" ref="C166:C201" ca="1" si="7">IF(B166="","",$F$10+$F$9*B166+_xlfn.NORM.INV(RAND(),0,$F$11))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C167" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C168" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C169" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C170" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C171" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C172" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C173" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C174" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C175" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C176" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C177" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C178" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C179" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C180" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C181" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C182" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C183" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C184" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C185" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C186" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C187" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C188" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C189" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C190" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C191" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C192" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C193" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C194" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C195" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C196" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C197" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C198" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C199" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C200" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C201" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
@@ -6152,22 +7591,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205C7CE4-0FC6-4035-9DFB-A7FC7C295370}">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L27:L28"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.265625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="8"/>
+    <col min="2" max="2" width="10.265625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="23"/>
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.53125" customWidth="1"/>
     <col min="9" max="9" width="11.19921875" customWidth="1"/>
     <col min="10" max="10" width="15.73046875" customWidth="1"/>
-    <col min="12" max="12" width="10.1328125" customWidth="1"/>
+    <col min="12" max="12" width="12.3984375" customWidth="1"/>
     <col min="13" max="13" width="13.86328125" customWidth="1"/>
     <col min="14" max="14" width="11.19921875" customWidth="1"/>
     <col min="15" max="15" width="12.9296875" customWidth="1"/>
@@ -6178,10 +7617,10 @@
       <c r="A1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6189,35 +7628,35 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="23">
         <f ca="1">IF(A2&gt;$F$12,"",$F$15+RAND()*($F$16-$F$15))</f>
-        <v>17.42635964234109</v>
-      </c>
-      <c r="C2" s="8">
+        <v>17.18707195763491</v>
+      </c>
+      <c r="C2" s="23">
         <f ca="1">IF(B2="","",$F$10+$F$9*B2+_xlfn.NORM.INV(RAND(),0,$F$11))</f>
-        <v>263.2902608483239</v>
-      </c>
-      <c r="E2" s="11" t="s">
+        <v>10.151408682817312</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="23">
         <f t="shared" ref="B3:B66" ca="1" si="0">IF(A3&gt;$F$12,"",$F$15+RAND()*($F$16-$F$15))</f>
-        <v>17.065975831244707</v>
-      </c>
-      <c r="C3" s="8">
+        <v>15.997075442249754</v>
+      </c>
+      <c r="C3" s="23">
         <f t="shared" ref="C3:C66" ca="1" si="1">IF(B3="","",$F$10+$F$9*B3+_xlfn.NORM.INV(RAND(),0,$F$11))</f>
-        <v>260.82248748263515</v>
-      </c>
-      <c r="E3" s="13" t="s">
+        <v>6.1557070884384686</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>0.9</v>
       </c>
       <c r="G3" s="5"/>
@@ -6226,18 +7665,18 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.142764224795876</v>
-      </c>
-      <c r="C4" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>230.1854548228153</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.838512377227488</v>
+      </c>
+      <c r="C4" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6447818099314464</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <f>1-F3</f>
         <v>9.9999999999999978E-2</v>
       </c>
@@ -6249,18 +7688,18 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.919535956826813</v>
-      </c>
-      <c r="C5" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>243.35829130725199</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="B5" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.372827057447093</v>
+      </c>
+      <c r="C5" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9440989113547755</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6268,18 +7707,18 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>18.778412309462407</v>
-      </c>
-      <c r="C6" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>285.61924398347475</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.313751972954435</v>
+      </c>
+      <c r="C6" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.0989387449831995</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -6297,20 +7736,20 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.427555347499265</v>
-      </c>
-      <c r="C7" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>248.28252749499998</v>
+      <c r="B7" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.742894581372157</v>
+      </c>
+      <c r="C7" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.828676539185452</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="1">
         <f ca="1">PEARSON(C:C,B:B)</f>
-        <v>0.98650295132135557</v>
+        <v>0.10402146388247734</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -6323,24 +7762,24 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.948650886944742</v>
-      </c>
-      <c r="C8" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>252.29035653644775</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="B8" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.734227146673813</v>
+      </c>
+      <c r="C8" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.038583730078745</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="21"/>
       <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I8" s="1">
         <f ca="1">I7^2</f>
-        <v>0.97318807296574483</v>
+        <v>1.0820464948253537E-2</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -6353,26 +7792,26 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.35720393773564</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>247.40313502866175</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="B9" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.282540354228001</v>
+      </c>
+      <c r="C9" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.2837128786578074</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="19">
-        <v>15</v>
+      <c r="F9" s="17">
+        <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="1">
         <f ca="1">1-(((1-I8)*(I11-1))/(I11-2))</f>
-        <v>0.9723755903283432</v>
+        <v>-8.8097488556921011E-2</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -6385,18 +7824,18 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.69344651343955</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>265.00363310517224</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="B10" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.213315735133914</v>
+      </c>
+      <c r="C10" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.1631680932209196</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="17">
         <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -6404,7 +7843,7 @@
       </c>
       <c r="I10" s="1">
         <f ca="1">STEYX(C:C,B:B)</f>
-        <v>3.519501960572891</v>
+        <v>4.0865749443781327</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -6417,18 +7856,18 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.433167255026804</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>237.89900763232328</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="B11" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>18.940190588200846</v>
+      </c>
+      <c r="C11" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.1698633962251779</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="17">
         <v>4</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -6436,7 +7875,7 @@
       </c>
       <c r="I11" s="2">
         <f ca="1">COUNT(C:C)</f>
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -6449,19 +7888,19 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>18.934145732601063</v>
-      </c>
-      <c r="C12" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>291.74118477065099</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="B12" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.86944262589245</v>
+      </c>
+      <c r="C12" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0207066299395091</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="17">
-        <v>35</v>
+      <c r="F12" s="15">
+        <v>12</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -6476,13 +7915,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>18.766906743610804</v>
-      </c>
-      <c r="C13" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>285.44324215579604</v>
+      <c r="B13" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.972165668815665</v>
+      </c>
+      <c r="C13" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2533011963944469</v>
       </c>
       <c r="E13" s="10"/>
       <c r="H13" s="10" t="s">
@@ -6500,18 +7939,18 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.607726679432215</v>
-      </c>
-      <c r="C14" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>274.3337891453433</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="B14" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C14" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="21"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
         <v>13</v>
@@ -6535,18 +7974,18 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.119712071310945</v>
-      </c>
-      <c r="C15" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>231.1804234345735</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="B15" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C15" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="19">
         <v>15</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -6557,19 +7996,19 @@
       </c>
       <c r="J15" s="1">
         <f ca="1">J17-J16</f>
-        <v>14836.966349909084</v>
+        <v>1.8267946692505745</v>
       </c>
       <c r="K15" s="1">
         <f ca="1">J15/I15</f>
-        <v>14836.966349909084</v>
+        <v>1.8267946692505745</v>
       </c>
       <c r="L15" s="1">
         <f ca="1">K15/K16</f>
-        <v>1197.7955320719343</v>
+        <v>0.10938828154878497</v>
       </c>
       <c r="M15" s="1">
         <f ca="1">_xlfn.F.DIST.RT(L15,I15,I16)</f>
-        <v>1.6306709684511579E-27</v>
+        <v>0.74766714301607684</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -6578,18 +8017,18 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.022269145772057</v>
-      </c>
-      <c r="C16" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>244.38275761097009</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="B16" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C16" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="15">
         <v>20</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -6597,15 +8036,15 @@
       </c>
       <c r="I16" s="1">
         <f ca="1">I11-2</f>
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1">
         <f ca="1">I10^2*(I11-2)</f>
-        <v>408.76750366572196</v>
+        <v>167.00094776019139</v>
       </c>
       <c r="K16" s="1">
         <f ca="1">J16/I16</f>
-        <v>12.386894050476423</v>
+        <v>16.700094776019139</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -6616,25 +8055,25 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>19.526184294414222</v>
-      </c>
-      <c r="C17" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>292.34500813279004</v>
-      </c>
-      <c r="E17" s="20"/>
+      <c r="B17" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C17" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="E17" s="18"/>
       <c r="H17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="2">
         <f ca="1">SUM(I15:I16)</f>
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="J17" s="2">
         <f ca="1">(_xlfn.STDEV.P(C:C)^2)*(I11)</f>
-        <v>15245.733853574806</v>
+        <v>168.82774242944197</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -6646,13 +8085,13 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>19.389293462409558</v>
-      </c>
-      <c r="C18" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>297.33903988835374</v>
+      <c r="B18" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C18" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -6667,13 +8106,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.007302409005565</v>
-      </c>
-      <c r="C19" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>254.4786101670218</v>
+      <c r="B19" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C19" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
@@ -6707,61 +8146,61 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.113485382139157</v>
-      </c>
-      <c r="C20" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>248.18860784009146</v>
+      <c r="B20" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C20" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
       <c r="H20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I20" s="1">
         <f ca="1">INTERCEPT(C:C,B:B)</f>
-        <v>15.825940884618689</v>
-      </c>
-      <c r="J20" s="18">
+        <v>0.13794396528257558</v>
+      </c>
+      <c r="J20" s="16">
         <f ca="1">J21*SQRT(SUMSQ(B:B)/I11)</f>
-        <v>7.2163217220068052</v>
+        <v>14.543291220138441</v>
       </c>
       <c r="K20" s="1">
         <f ca="1">I20/J20</f>
-        <v>2.19307584864961</v>
+        <v>9.4850583127676965E-3</v>
       </c>
       <c r="L20" s="1">
-        <f ca="1">_xlfn.T.DIST.2T(K20,I11-2)</f>
-        <v>3.5455962586442909E-2</v>
+        <f ca="1">_xlfn.T.DIST.2T(ABS(K20),I11-2)</f>
+        <v>0.9926186903221107</v>
       </c>
       <c r="M20" s="1">
         <f ca="1">I20-_xlfn.T.INV.2T(0.05,I11-2)*J20</f>
-        <v>1.1442239498798816</v>
+        <v>-32.266528238058754</v>
       </c>
       <c r="N20" s="1">
         <f ca="1">I20+_xlfn.T.INV.2T(0.05,I11-2)*J20</f>
-        <v>30.507657819357497</v>
+        <v>32.542416168623902</v>
       </c>
       <c r="O20" s="1">
         <f ca="1">I20-_xlfn.T.INV.2T(1-F3,I11-2)*J20</f>
-        <v>3.6133244251008563</v>
+        <v>-26.221205968946734</v>
       </c>
       <c r="P20" s="1">
         <f ca="1">I20+_xlfn.T.INV.2T(1-F3,I11-2)*J20</f>
-        <v>28.038557344136521</v>
+        <v>26.497093899511881</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>19.768623755267189</v>
-      </c>
-      <c r="C21" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>297.78907497380237</v>
+      <c r="B21" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C21" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
       <c r="H21" s="2" t="str">
         <f>F5</f>
@@ -6769,241 +8208,241 @@
       </c>
       <c r="I21" s="2">
         <f ca="1">SLOPE(C:C,B:B)</f>
-        <v>14.322857819758573</v>
+        <v>0.2786451392946912</v>
       </c>
       <c r="J21" s="2">
         <f ca="1">I10/(SQRT(I11)*_xlfn.STDEV.P(B:B))</f>
-        <v>0.41384559452202063</v>
+        <v>0.84249255490916442</v>
       </c>
       <c r="K21" s="2">
         <f ca="1">I21/J21</f>
-        <v>34.609182770934289</v>
+        <v>0.33073899308787846</v>
       </c>
       <c r="L21" s="2">
         <f ca="1">_xlfn.T.DIST.2T(ABS(K21), I11-2)</f>
-        <v>1.6306709684511579E-27</v>
+        <v>0.74766714301607817</v>
       </c>
       <c r="M21" s="2">
         <f ca="1">I21-_xlfn.T.INV.2T(0.05,I11-2)*J21</f>
-        <v>13.480882626921506</v>
+        <v>-1.5985452548075976</v>
       </c>
       <c r="N21" s="2">
         <f ca="1">I21+_xlfn.T.INV.2T(0.05,I11-2)*J21</f>
-        <v>15.16483301259564</v>
+        <v>2.1558355333969801</v>
       </c>
       <c r="O21" s="2">
         <f ca="1">I21-_xlfn.T.INV.2T(1-F3,I11-2)*J21</f>
-        <v>13.622481961522439</v>
+        <v>-1.2483398627364506</v>
       </c>
       <c r="P21" s="2">
         <f ca="1">I21+_xlfn.T.INV.2T(1-F3,I11-2)*J21</f>
-        <v>15.023233677994707</v>
+        <v>1.8056301413258329</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>19.361294534222075</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>292.53624089359869</v>
+      <c r="B22" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C22" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>18.464077301106098</v>
-      </c>
-      <c r="C23" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>283.35376005474126</v>
+      <c r="B23" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C23" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.548818218712608</v>
-      </c>
-      <c r="C24" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>238.90807613006379</v>
+      <c r="B24" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C24" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>18.061612031495688</v>
-      </c>
-      <c r="C25" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>271.37523816034161</v>
+      <c r="B25" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C25" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.206333098042474</v>
-      </c>
-      <c r="C26" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>236.02233730134324</v>
+      <c r="B26" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C26" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.193274030839891</v>
-      </c>
-      <c r="C27" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>269.84439360640118</v>
+      <c r="B27" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C27" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>18.629119414822153</v>
-      </c>
-      <c r="C28" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>277.51005589006462</v>
+      <c r="B28" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C28" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>19.957913736115245</v>
-      </c>
-      <c r="C29" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>300.01548025709326</v>
+      <c r="B29" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C29" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.913209218824267</v>
-      </c>
-      <c r="C30" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>258.49417295681945</v>
+      <c r="B30" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C30" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.746189526137776</v>
-      </c>
-      <c r="C31" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>275.19787455960136</v>
+      <c r="B31" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C31" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.443582753722119</v>
-      </c>
-      <c r="C32" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>250.48899900620881</v>
+      <c r="B32" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C32" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>18.919186220782979</v>
-      </c>
-      <c r="C33" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>287.56541246721275</v>
+      <c r="B33" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C33" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.246580657720937</v>
-      </c>
-      <c r="C34" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>243.72235694948438</v>
+      <c r="B34" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C34" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>18.244685139306025</v>
-      </c>
-      <c r="C35" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>274.6309839492215</v>
+      <c r="B35" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C35" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.841139447825551</v>
-      </c>
-      <c r="C36" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>254.39716451145924</v>
+      <c r="B36" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C36" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C37" s="8" t="str">
+      <c r="B37" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C37" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7012,11 +8451,11 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C38" s="8" t="str">
+      <c r="B38" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C38" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7025,11 +8464,11 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C39" s="8" t="str">
+      <c r="B39" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C39" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7038,11 +8477,11 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C40" s="8" t="str">
+      <c r="B40" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C40" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7051,11 +8490,11 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C41" s="8" t="str">
+      <c r="B41" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C41" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7064,11 +8503,11 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C42" s="8" t="str">
+      <c r="B42" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C42" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7077,11 +8516,11 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C43" s="8" t="str">
+      <c r="B43" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C43" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7090,11 +8529,11 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C44" s="8" t="str">
+      <c r="B44" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C44" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7103,11 +8542,11 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C45" s="8" t="str">
+      <c r="B45" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C45" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7116,11 +8555,11 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C46" s="8" t="str">
+      <c r="B46" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C46" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7129,11 +8568,11 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C47" s="8" t="str">
+      <c r="B47" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C47" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7142,11 +8581,11 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C48" s="8" t="str">
+      <c r="B48" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C48" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7155,11 +8594,11 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C49" s="8" t="str">
+      <c r="B49" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C49" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7168,11 +8607,11 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C50" s="8" t="str">
+      <c r="B50" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C50" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7181,11 +8620,11 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C51" s="8" t="str">
+      <c r="B51" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C51" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7194,11 +8633,11 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C52" s="8" t="str">
+      <c r="B52" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C52" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7207,11 +8646,11 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C53" s="8" t="str">
+      <c r="B53" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C53" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7220,11 +8659,11 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C54" s="8" t="str">
+      <c r="B54" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C54" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7233,11 +8672,11 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C55" s="8" t="str">
+      <c r="B55" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C55" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7246,11 +8685,11 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C56" s="8" t="str">
+      <c r="B56" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C56" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7259,11 +8698,11 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C57" s="8" t="str">
+      <c r="B57" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C57" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7272,11 +8711,11 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C58" s="8" t="str">
+      <c r="B58" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C58" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7285,11 +8724,11 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C59" s="8" t="str">
+      <c r="B59" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C59" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7298,11 +8737,11 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C60" s="8" t="str">
+      <c r="B60" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C60" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7311,11 +8750,11 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C61" s="8" t="str">
+      <c r="B61" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C61" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7324,11 +8763,11 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C62" s="8" t="str">
+      <c r="B62" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C62" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7337,11 +8776,11 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C63" s="8" t="str">
+      <c r="B63" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C63" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7350,11 +8789,11 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C64" s="8" t="str">
+      <c r="B64" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C64" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7363,11 +8802,11 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C65" s="8" t="str">
+      <c r="B65" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C65" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7376,11 +8815,11 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C66" s="8" t="str">
+      <c r="B66" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C66" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -7389,11 +8828,11 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="8" t="str">
+      <c r="B67" s="23" t="str">
         <f t="shared" ref="B67:B101" ca="1" si="2">IF(A67&gt;$F$12,"",$F$15+RAND()*($F$16-$F$15))</f>
         <v/>
       </c>
-      <c r="C67" s="8" t="str">
+      <c r="C67" s="23" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">IF(B67="","",$F$10+$F$9*B67+_xlfn.NORM.INV(RAND(),0,$F$11))</f>
         <v/>
       </c>
@@ -7402,11 +8841,11 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="8" t="str">
+      <c r="B68" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C68" s="8" t="str">
+      <c r="C68" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7415,11 +8854,11 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="str">
+      <c r="B69" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C69" s="8" t="str">
+      <c r="C69" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7428,11 +8867,11 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="8" t="str">
+      <c r="B70" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C70" s="8" t="str">
+      <c r="C70" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7441,11 +8880,11 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="8" t="str">
+      <c r="B71" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C71" s="8" t="str">
+      <c r="C71" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7454,11 +8893,11 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="8" t="str">
+      <c r="B72" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C72" s="8" t="str">
+      <c r="C72" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7467,11 +8906,11 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="8" t="str">
+      <c r="B73" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C73" s="8" t="str">
+      <c r="C73" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7480,11 +8919,11 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="8" t="str">
+      <c r="B74" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C74" s="8" t="str">
+      <c r="C74" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7493,11 +8932,11 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="str">
+      <c r="B75" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C75" s="8" t="str">
+      <c r="C75" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7506,11 +8945,11 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="8" t="str">
+      <c r="B76" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C76" s="8" t="str">
+      <c r="C76" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7519,11 +8958,11 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="str">
+      <c r="B77" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C77" s="8" t="str">
+      <c r="C77" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7532,11 +8971,11 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="8" t="str">
+      <c r="B78" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C78" s="8" t="str">
+      <c r="C78" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7545,11 +8984,11 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="8" t="str">
+      <c r="B79" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C79" s="8" t="str">
+      <c r="C79" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7558,11 +8997,11 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="8" t="str">
+      <c r="B80" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C80" s="8" t="str">
+      <c r="C80" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7571,11 +9010,11 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="8" t="str">
+      <c r="B81" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C81" s="8" t="str">
+      <c r="C81" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7584,11 +9023,11 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="8" t="str">
+      <c r="B82" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C82" s="8" t="str">
+      <c r="C82" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7597,11 +9036,11 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="8" t="str">
+      <c r="B83" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C83" s="8" t="str">
+      <c r="C83" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7610,11 +9049,11 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="8" t="str">
+      <c r="B84" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C84" s="8" t="str">
+      <c r="C84" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7623,11 +9062,11 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="8" t="str">
+      <c r="B85" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C85" s="8" t="str">
+      <c r="C85" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7636,11 +9075,11 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="8" t="str">
+      <c r="B86" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C86" s="8" t="str">
+      <c r="C86" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7649,11 +9088,11 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="8" t="str">
+      <c r="B87" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C87" s="8" t="str">
+      <c r="C87" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7662,11 +9101,11 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="8" t="str">
+      <c r="B88" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C88" s="8" t="str">
+      <c r="C88" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7675,11 +9114,11 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="8" t="str">
+      <c r="B89" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C89" s="8" t="str">
+      <c r="C89" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7688,11 +9127,11 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="8" t="str">
+      <c r="B90" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C90" s="8" t="str">
+      <c r="C90" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7701,11 +9140,11 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="8" t="str">
+      <c r="B91" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C91" s="8" t="str">
+      <c r="C91" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7714,11 +9153,11 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="8" t="str">
+      <c r="B92" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C92" s="8" t="str">
+      <c r="C92" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7727,11 +9166,11 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="8" t="str">
+      <c r="B93" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C93" s="8" t="str">
+      <c r="C93" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7740,11 +9179,11 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="8" t="str">
+      <c r="B94" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C94" s="8" t="str">
+      <c r="C94" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7753,11 +9192,11 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="8" t="str">
+      <c r="B95" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C95" s="8" t="str">
+      <c r="C95" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7766,11 +9205,11 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="8" t="str">
+      <c r="B96" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C96" s="8" t="str">
+      <c r="C96" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7779,11 +9218,11 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="8" t="str">
+      <c r="B97" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C97" s="8" t="str">
+      <c r="C97" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7792,11 +9231,11 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="8" t="str">
+      <c r="B98" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C98" s="8" t="str">
+      <c r="C98" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7805,11 +9244,11 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="8" t="str">
+      <c r="B99" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C99" s="8" t="str">
+      <c r="C99" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7818,11 +9257,11 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="8" t="str">
+      <c r="B100" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C100" s="8" t="str">
+      <c r="C100" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -7831,12 +9270,1312 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="8" t="str">
+      <c r="B101" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="C101" s="8" t="str">
+      <c r="C101" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="23" t="str">
+        <f t="shared" ref="B102:B165" ca="1" si="4">IF(A102&gt;$F$12,"",$F$15+RAND()*($F$16-$F$15))</f>
+        <v/>
+      </c>
+      <c r="C102" s="23" t="str">
+        <f t="shared" ref="C102:C165" ca="1" si="5">IF(B102="","",$F$10+$F$9*B102+_xlfn.NORM.INV(RAND(),0,$F$11))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C103" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C104" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C105" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C106" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C107" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C108" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C109" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C110" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C111" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C112" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C113" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C114" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C115" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C116" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C117" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C118" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C119" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C120" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C121" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C122" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C123" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C124" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C125" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C126" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C127" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C128" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C129" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C130" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C131" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C132" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C133" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C134" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C135" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C136" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C137" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C138" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C139" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C140" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C141" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C142" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C143" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C144" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C145" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C146" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C147" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C148" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C149" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C150" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C151" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C152" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C153" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C154" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C155" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C156" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C157" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C158" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C159" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C160" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C161" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C162" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C163" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C164" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="C165" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="23" t="str">
+        <f t="shared" ref="B166:B201" ca="1" si="6">IF(A166&gt;$F$12,"",$F$15+RAND()*($F$16-$F$15))</f>
+        <v/>
+      </c>
+      <c r="C166" s="23" t="str">
+        <f t="shared" ref="C166:C201" ca="1" si="7">IF(B166="","",$F$10+$F$9*B166+_xlfn.NORM.INV(RAND(),0,$F$11))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C167" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C168" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C169" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C170" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C171" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C172" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C173" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C174" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C175" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C176" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C177" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C178" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C179" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C180" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C181" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C182" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C183" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C184" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C185" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C186" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C187" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C188" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C189" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C190" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C191" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C192" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C193" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C194" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C195" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C196" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C197" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C198" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C199" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C200" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C201" s="23" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
